--- a/NOT_TON.xlsx
+++ b/NOT_TON.xlsx
@@ -11,94 +11,1940 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>09056125002</t>
-  </si>
-  <si>
-    <t>حميدرضا خرسندي</t>
-  </si>
-  <si>
-    <t>530952</t>
-  </si>
-  <si>
-    <t>ad7db092ab50f97d5bd45d65ae88b156dbfaad8b0640eacfd54a3ded39197d7b</t>
-  </si>
-  <si>
-    <t>57,848 DOGS</t>
-  </si>
-  <si>
-    <t>944806</t>
-  </si>
-  <si>
-    <t>09904646966</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صادقی کرمانشاهی</t>
-  </si>
-  <si>
-    <t>533754</t>
-  </si>
-  <si>
-    <t>45445021a5cd95394fe81c2f412e3643ee9d32c177c307f5dbbdd62174a7a7fb</t>
-  </si>
-  <si>
-    <t>46,419 DOGS</t>
-  </si>
-  <si>
-    <t>319676</t>
-  </si>
-  <si>
-    <t>09120440041</t>
-  </si>
-  <si>
-    <t>شفائيان</t>
-  </si>
-  <si>
-    <t>512318</t>
-  </si>
-  <si>
-    <t>8aadb0e57602a2b9a4fab35518a07566333dec9b59e4d07519c561bfefe14a46</t>
-  </si>
-  <si>
-    <t>78,877 DOGS</t>
-  </si>
-  <si>
-    <t>1186339</t>
-  </si>
-  <si>
-    <t>09388559696</t>
-  </si>
-  <si>
-    <t>محمدجواد قزل باش</t>
-  </si>
-  <si>
-    <t>532178</t>
-  </si>
-  <si>
-    <t>edda48494416db5d432ff1dac3f98b385eddbb6da1b3b6c67d26d2967e06b914</t>
-  </si>
-  <si>
-    <t>71,030 DOGS</t>
-  </si>
-  <si>
-    <t>708963</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="640">
+  <si>
+    <t>09307050186</t>
+  </si>
+  <si>
+    <t>ميرزامحمدخوشنويس</t>
+  </si>
+  <si>
+    <t>531962</t>
+  </si>
+  <si>
+    <t>8c73517bc49766ff4e4383239ef5b312d7b2b2e4d7c0004e86ec0b96a9e152bc</t>
+  </si>
+  <si>
+    <t>23,817 DOGS</t>
+  </si>
+  <si>
+    <t>969598</t>
+  </si>
+  <si>
+    <t>09163235385</t>
+  </si>
+  <si>
+    <t>پيمان صالحي</t>
+  </si>
+  <si>
+    <t>531707</t>
+  </si>
+  <si>
+    <t>fe4635561af9855741562585cd544ff09174ad760765f42f58bcd7f6fc026441</t>
+  </si>
+  <si>
+    <t>36,238 DOGS</t>
+  </si>
+  <si>
+    <t>886659</t>
+  </si>
+  <si>
+    <t>09100102930</t>
+  </si>
+  <si>
+    <t>محمدرضا متقيان نژاد</t>
+  </si>
+  <si>
+    <t>534363</t>
+  </si>
+  <si>
+    <t>9838dde257c5b009f80959c7ff125049f6cf103eefdfbbaeb4ec228104deb917</t>
+  </si>
+  <si>
+    <t>19,002 DOGS</t>
+  </si>
+  <si>
+    <t>879814</t>
+  </si>
+  <si>
+    <t>09370028586</t>
+  </si>
+  <si>
+    <t>محمد جنگجو</t>
+  </si>
+  <si>
+    <t>533134</t>
+  </si>
+  <si>
+    <t>7bba9daf4641dafc694bfdd89177c9a7591b312518f083d1a87d78ff05860076</t>
+  </si>
+  <si>
+    <t>20,093 DOGS</t>
+  </si>
+  <si>
+    <t>116907</t>
+  </si>
+  <si>
+    <t>09122045334</t>
+  </si>
+  <si>
+    <t>نعیمی</t>
+  </si>
+  <si>
+    <t>537425</t>
+  </si>
+  <si>
+    <t>05f50ad42faa74f8aefad3e9727f1a467c69fee8fddc932308dd2b927c6aa0bc</t>
+  </si>
+  <si>
+    <t>40,468 DOGS</t>
+  </si>
+  <si>
+    <t>210262</t>
+  </si>
+  <si>
+    <t>09908683695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">براتی پیره </t>
+  </si>
+  <si>
+    <t>538187</t>
+  </si>
+  <si>
+    <t>2633b9fd589375224c83b0f3f887d72f4ed7c6ac994ba4abaf7bcc655cd4fe5d</t>
+  </si>
+  <si>
+    <t>36,938 DOGS</t>
+  </si>
+  <si>
+    <t>1173253</t>
+  </si>
+  <si>
+    <t>09166604303</t>
+  </si>
+  <si>
+    <t>سیف</t>
+  </si>
+  <si>
+    <t>536561</t>
+  </si>
+  <si>
+    <t>3bf693d5af2e456b02c7a56ca8f5e80d1250c86996ef95cb37ad3b1980141c4b</t>
+  </si>
+  <si>
+    <t>63,507 DOGS</t>
+  </si>
+  <si>
+    <t>358877</t>
+  </si>
+  <si>
+    <t>09337099541</t>
+  </si>
+  <si>
+    <t>امير عليرضاپوري</t>
+  </si>
+  <si>
+    <t>539420</t>
+  </si>
+  <si>
+    <t>a078da15edecee82935085026bc37d41bee40ea71442e4a1a794d27003927da2</t>
+  </si>
+  <si>
+    <t>9,880 DOGS</t>
+  </si>
+  <si>
+    <t>1230040</t>
+  </si>
+  <si>
+    <t>09016434203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علیرضا خوشخو
+</t>
+  </si>
+  <si>
+    <t>539006</t>
+  </si>
+  <si>
+    <t>2461b3c614b7c3397ae325a764674ef5de95d0f7368c29036bbd9abad1375f00</t>
+  </si>
+  <si>
+    <t>61,900 DOGS</t>
+  </si>
+  <si>
+    <t>731080</t>
+  </si>
+  <si>
+    <t>09126617921</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گلشني قريه علي</t>
+  </si>
+  <si>
+    <t>534498</t>
+  </si>
+  <si>
+    <t>c6a78195571e16446c5e317b8df7922ae4a3247278352d81979e7a5007a3b204</t>
+  </si>
+  <si>
+    <t>37,152 DOGS</t>
+  </si>
+  <si>
+    <t>1118660</t>
+  </si>
+  <si>
+    <t>09351372923</t>
+  </si>
+  <si>
+    <t>سياوش اصغري</t>
+  </si>
+  <si>
+    <t>536910</t>
+  </si>
+  <si>
+    <t>1d77f9b1df4d57be73fa8b8069be5c56e8be204f74eed3304b225f3a616d25cf</t>
+  </si>
+  <si>
+    <t>62,169 DOGS</t>
+  </si>
+  <si>
+    <t>947360</t>
+  </si>
+  <si>
+    <t>09111557490</t>
+  </si>
+  <si>
+    <t>علي اكبر ابراهيمي</t>
+  </si>
+  <si>
+    <t>540154</t>
+  </si>
+  <si>
+    <t>96d7884031f77d44fcfad8b1ba24a0b4fef7b78a68e0094d0525002252b2f6b4</t>
+  </si>
+  <si>
+    <t>6,201 DOGS</t>
+  </si>
+  <si>
+    <t>1034052</t>
+  </si>
+  <si>
+    <t>09128402182</t>
+  </si>
+  <si>
+    <t>فرشاد سعادتی فرد</t>
+  </si>
+  <si>
+    <t>534527</t>
+  </si>
+  <si>
+    <t>d87986296ce0720b3fcb63fb2fb3c3796a8821cdfd5ee18ac8c53f598e6dc3b5</t>
+  </si>
+  <si>
+    <t>62,501 DOGS</t>
+  </si>
+  <si>
+    <t>135281</t>
+  </si>
+  <si>
+    <t>09199643082</t>
+  </si>
+  <si>
+    <t>میرزائی آلونی</t>
+  </si>
+  <si>
+    <t>538435</t>
+  </si>
+  <si>
+    <t>9578e89dd5f19e1f3cc052bd067a41481f8c7d97a73e85ebe85fff312d559d92</t>
+  </si>
+  <si>
+    <t>88,226 DOGS</t>
+  </si>
+  <si>
+    <t>111918</t>
+  </si>
+  <si>
+    <t>09152982898</t>
+  </si>
+  <si>
+    <t>درازهي</t>
+  </si>
+  <si>
+    <t>538281</t>
+  </si>
+  <si>
+    <t>4d0978a2cd7eb703741e9c4a4736cab1a4d4054890dae7db996e13c6fca8086d</t>
+  </si>
+  <si>
+    <t>64,000 DOGS</t>
+  </si>
+  <si>
+    <t>981217</t>
+  </si>
+  <si>
+    <t>09114795083</t>
+  </si>
+  <si>
+    <t>هادی هادی پور کلاشمی</t>
+  </si>
+  <si>
+    <t>538588</t>
+  </si>
+  <si>
+    <t>fa0a327442d72bc85ef4127af7f7035763926975f7b0195d1c59fd52141667ea</t>
+  </si>
+  <si>
+    <t>39,119 DOGS</t>
+  </si>
+  <si>
+    <t>754578</t>
+  </si>
+  <si>
+    <t>09018260779</t>
+  </si>
+  <si>
+    <t>یوسفلوئی</t>
+  </si>
+  <si>
+    <t>539827</t>
+  </si>
+  <si>
+    <t>68f4cebacd993cf29faeed0b979f680760aafd8a881914d7d30b8c8120165a7a</t>
+  </si>
+  <si>
+    <t>17,208 DOGS</t>
+  </si>
+  <si>
+    <t>341433</t>
+  </si>
+  <si>
+    <t>09386429604</t>
+  </si>
+  <si>
+    <t>خالقي</t>
+  </si>
+  <si>
+    <t>539226</t>
+  </si>
+  <si>
+    <t>5980dc52315481ce6dce25221d659153261364c48902dc5b3eb60c4536b55199</t>
+  </si>
+  <si>
+    <t>27,938 DOGS</t>
+  </si>
+  <si>
+    <t>1169635</t>
+  </si>
+  <si>
+    <t>09336012238</t>
+  </si>
+  <si>
+    <t>ياسر گونجتي</t>
+  </si>
+  <si>
+    <t>539633</t>
+  </si>
+  <si>
+    <t>9c020e38db5414c69c134a40212bf4720937c432331fd7cefc39705a7817b96e</t>
+  </si>
+  <si>
+    <t>17,788 DOGS</t>
+  </si>
+  <si>
+    <t>798152</t>
+  </si>
+  <si>
+    <t>09188742706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نژاد مولوی
+</t>
+  </si>
+  <si>
+    <t>274586</t>
+  </si>
+  <si>
+    <t>c551db3203df7e4baad3609d5561114ccc5cecf5b2e0189bb3958dd65c89846e</t>
+  </si>
+  <si>
+    <t>62,568 DOGS</t>
+  </si>
+  <si>
+    <t>360962</t>
+  </si>
+  <si>
+    <t>09148899341</t>
+  </si>
+  <si>
+    <t>حسين حيدري</t>
+  </si>
+  <si>
+    <t>537578</t>
+  </si>
+  <si>
+    <t>730497b8ea360f0401f5958fa774e165eb6b71dbf5e9c8569aea9367d4e52c9a</t>
+  </si>
+  <si>
+    <t>44,646 DOGS</t>
+  </si>
+  <si>
+    <t>967377</t>
+  </si>
+  <si>
+    <t>09371299665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مرتضي حسن زاده</t>
+  </si>
+  <si>
+    <t>536166</t>
+  </si>
+  <si>
+    <t>9d97610de3a7adeef967952302573082e3c248403b4dda6dffb564b7d999362c</t>
+  </si>
+  <si>
+    <t>36,678 DOGS</t>
+  </si>
+  <si>
+    <t>1196599</t>
+  </si>
+  <si>
+    <t>09933826569</t>
+  </si>
+  <si>
+    <t>حیدریار</t>
+  </si>
+  <si>
+    <t>540305</t>
+  </si>
+  <si>
+    <t>3f20a61445e8374d3837702c1b60fa91053de2e016a76cb9f92077b042d7f4bc</t>
+  </si>
+  <si>
+    <t>34,009 DOGS</t>
+  </si>
+  <si>
+    <t>296674</t>
+  </si>
+  <si>
+    <t>09339585036</t>
+  </si>
+  <si>
+    <t>غلاميان نقنه</t>
+  </si>
+  <si>
+    <t>540217</t>
+  </si>
+  <si>
+    <t>e330559b3327aa445d5314f3b216156e0b016db5b805d23bd0d46aa6a7d89824</t>
+  </si>
+  <si>
+    <t>62,870 DOGS</t>
+  </si>
+  <si>
+    <t>901908</t>
+  </si>
+  <si>
+    <t>09186920032</t>
+  </si>
+  <si>
+    <t>محرابيان</t>
+  </si>
+  <si>
+    <t>534526</t>
+  </si>
+  <si>
+    <t>dc91b520d3d21f95ec760c10e12460b378ba5f4cffefe3cb2aa2b5ef395fd758</t>
+  </si>
+  <si>
+    <t>32,952 DOGS</t>
+  </si>
+  <si>
+    <t>1268732</t>
+  </si>
+  <si>
+    <t>09181709419</t>
+  </si>
+  <si>
+    <t>میرکی</t>
+  </si>
+  <si>
+    <t>538571</t>
+  </si>
+  <si>
+    <t>c38ed386414331b256facc2c822dcfc2ab47bc8fd73943ff16613644e2801819</t>
+  </si>
+  <si>
+    <t>24,415 DOGS</t>
+  </si>
+  <si>
+    <t>242219</t>
+  </si>
+  <si>
+    <t>09362139217</t>
+  </si>
+  <si>
+    <t>فمارينا سيف</t>
+  </si>
+  <si>
+    <t>539623</t>
+  </si>
+  <si>
+    <t>5aa67e5275e08d2ad0cd947971b1176ac3579e409f0c07156144c6e8834461e1</t>
+  </si>
+  <si>
+    <t>35,396 DOGS</t>
+  </si>
+  <si>
+    <t>876351</t>
+  </si>
+  <si>
+    <t>09367881844</t>
+  </si>
+  <si>
+    <t>مرتضی عبادی</t>
+  </si>
+  <si>
+    <t>539481</t>
+  </si>
+  <si>
+    <t>72ebdffc50f2f87add8483367ad32526e761e5c62a0040a6097a78bdb5ff0b14</t>
+  </si>
+  <si>
+    <t>62,966 DOGS</t>
+  </si>
+  <si>
+    <t>374750</t>
+  </si>
+  <si>
+    <t>09146877356</t>
+  </si>
+  <si>
+    <t>اصغري</t>
+  </si>
+  <si>
+    <t>537441</t>
+  </si>
+  <si>
+    <t>1fcc80aca54489ad6fac2bb8969141684ed076f9022bb0f0a6ca91deb9bc9f97</t>
+  </si>
+  <si>
+    <t>42,880 DOGS</t>
+  </si>
+  <si>
+    <t>1104536</t>
+  </si>
+  <si>
+    <t>09223933756</t>
+  </si>
+  <si>
+    <t>امین پاینده</t>
+  </si>
+  <si>
+    <t>538404</t>
+  </si>
+  <si>
+    <t>2e5c2cfc650c1cb5fbf6a3252cf66a80008724426eec157b07b6fb633129e161</t>
+  </si>
+  <si>
+    <t>14,810 DOGS</t>
+  </si>
+  <si>
+    <t>10999</t>
+  </si>
+  <si>
+    <t>09033155461</t>
+  </si>
+  <si>
+    <t>مصباحي رضوان</t>
+  </si>
+  <si>
+    <t>534470</t>
+  </si>
+  <si>
+    <t>67cc7190952ecbab68520819e44f0c5a6686094a088f577eaf82fb19e078c9fc</t>
+  </si>
+  <si>
+    <t>52,422 DOGS</t>
+  </si>
+  <si>
+    <t>1087735</t>
+  </si>
+  <si>
+    <t>09367702385</t>
+  </si>
+  <si>
+    <t>منصور خلاصي فريمان</t>
+  </si>
+  <si>
+    <t>540084</t>
+  </si>
+  <si>
+    <t>7818813903186b91e791ce9db602cc5d33c9bc43421192fc684b5614a29bc6c8</t>
+  </si>
+  <si>
+    <t>943 DOGS</t>
+  </si>
+  <si>
+    <t>1204474</t>
+  </si>
+  <si>
+    <t>09053635675</t>
+  </si>
+  <si>
+    <t>محمد رشیدی</t>
+  </si>
+  <si>
+    <t>539028</t>
+  </si>
+  <si>
+    <t>48c557c42c1976e9178b862691196e62da29e7780c40112f3ffb7d138de01a7b</t>
+  </si>
+  <si>
+    <t>48,345 DOGS</t>
+  </si>
+  <si>
+    <t>787202</t>
+  </si>
+  <si>
+    <t>09126166792</t>
+  </si>
+  <si>
+    <t>سعید اسحقیان</t>
+  </si>
+  <si>
+    <t>538329</t>
+  </si>
+  <si>
+    <t>edf6d6b0939e053c7da76a575fa7b2f3324ec93330165ef84e53a772e4bca095</t>
+  </si>
+  <si>
+    <t>41,392 DOGS</t>
+  </si>
+  <si>
+    <t>316463</t>
+  </si>
+  <si>
+    <t>09200769022</t>
+  </si>
+  <si>
+    <t>محمدهادي قلي زادگان</t>
+  </si>
+  <si>
+    <t>540042</t>
+  </si>
+  <si>
+    <t>a905ec740e42bc1fe9b6d41dc18388f9029ca1e75e7d164bff448f6d5c7cfeaf</t>
+  </si>
+  <si>
+    <t>31,570.78 DOGS</t>
+  </si>
+  <si>
+    <t>1280268</t>
+  </si>
+  <si>
+    <t>09187822499</t>
+  </si>
+  <si>
+    <t>ساعدی</t>
+  </si>
+  <si>
+    <t>540292</t>
+  </si>
+  <si>
+    <t>e271c9707befd5cb41d6491ebf2f4f686b4bbaa4f6577874a6b60280b8ae53fe</t>
+  </si>
+  <si>
+    <t>31,873 DOGS</t>
+  </si>
+  <si>
+    <t>69906</t>
+  </si>
+  <si>
+    <t>09933054415</t>
+  </si>
+  <si>
+    <t>مائده محمدزاده</t>
+  </si>
+  <si>
+    <t>537858</t>
+  </si>
+  <si>
+    <t>2f0cca372a4a4c0c22fe037c95ea5cbca635a184e91bd3fff87af671d5bb58ce</t>
+  </si>
+  <si>
+    <t>1,038 DOGS</t>
+  </si>
+  <si>
+    <t>1285094</t>
+  </si>
+  <si>
+    <t>09307357027</t>
+  </si>
+  <si>
+    <t>كايدي بختياري</t>
+  </si>
+  <si>
+    <t>539867</t>
+  </si>
+  <si>
+    <t>d71da6aa3d953cc8933d7fadeaf92bf9778a2aba4ab77f1526e8a27e043a6f6e</t>
+  </si>
+  <si>
+    <t>33,438 DOGS</t>
+  </si>
+  <si>
+    <t>1243339</t>
+  </si>
+  <si>
+    <t>09912768805</t>
+  </si>
+  <si>
+    <t>علی فخرائی</t>
+  </si>
+  <si>
+    <t>539056</t>
+  </si>
+  <si>
+    <t>f6c27a06a4fb8a6057e618492ab6e2762081804cd92f6ecca8277fc3ec521ca7</t>
+  </si>
+  <si>
+    <t>32,327 DOGS</t>
+  </si>
+  <si>
+    <t>463784</t>
+  </si>
+  <si>
+    <t>09183852488</t>
+  </si>
+  <si>
+    <t>اریش</t>
+  </si>
+  <si>
+    <t>539762</t>
+  </si>
+  <si>
+    <t>57f676fe320f2f2d2a80d46a993e71e2a59483791a6f4cfae7a2514132a1bc04</t>
+  </si>
+  <si>
+    <t>35,573 DOGS</t>
+  </si>
+  <si>
+    <t>546264</t>
+  </si>
+  <si>
+    <t>09169588592</t>
+  </si>
+  <si>
+    <t>بهمن حسيني چگني</t>
+  </si>
+  <si>
+    <t>537107</t>
+  </si>
+  <si>
+    <t>7da8e2fbaf561753687297f3089bdcb748f9b45f80e5ac771868fb47efee7366</t>
+  </si>
+  <si>
+    <t>20,000 DOGS</t>
+  </si>
+  <si>
+    <t>949842</t>
+  </si>
+  <si>
+    <t>09107195470</t>
+  </si>
+  <si>
+    <t>جعفری</t>
+  </si>
+  <si>
+    <t>538529</t>
+  </si>
+  <si>
+    <t>0bfb0aa2db54a942a4cdd44c3d210bbf595fa0b4f04bd0cee5c3f2f14b193e0d</t>
+  </si>
+  <si>
+    <t>13,715 DOGS</t>
+  </si>
+  <si>
+    <t>1266597</t>
+  </si>
+  <si>
+    <t>09164828984</t>
+  </si>
+  <si>
+    <t>سعيده ارزن زرين</t>
+  </si>
+  <si>
+    <t>538766</t>
+  </si>
+  <si>
+    <t>8e3daea5c5e97f02315c6ffc1a377cea20accef7b51be1c5696acf219b83f7a4</t>
+  </si>
+  <si>
+    <t>83,977 DOGS</t>
+  </si>
+  <si>
+    <t>872533</t>
+  </si>
+  <si>
+    <t>09138744092</t>
+  </si>
+  <si>
+    <t>چینی ساز</t>
+  </si>
+  <si>
+    <t>535174</t>
+  </si>
+  <si>
+    <t>b29df76c89c5f253673538e5bcd86d45366cc9274eaf658d0adf0c53e26829c1</t>
+  </si>
+  <si>
+    <t>25,701 DOGS</t>
+  </si>
+  <si>
+    <t>41664</t>
+  </si>
+  <si>
+    <t>09223413586</t>
+  </si>
+  <si>
+    <t>محمودی اقدم</t>
+  </si>
+  <si>
+    <t>536265</t>
+  </si>
+  <si>
+    <t>40b2db90ac1b8eff3195b6a0f51132b536e34bed7a05788d8b06c622a77b8cf5</t>
+  </si>
+  <si>
+    <t>65,951 DOGS</t>
+  </si>
+  <si>
+    <t>625847</t>
+  </si>
+  <si>
+    <t>09104352877</t>
+  </si>
+  <si>
+    <t>رضائي</t>
+  </si>
+  <si>
+    <t>536704</t>
+  </si>
+  <si>
+    <t>d5f1d10070f26f0b559c95e745f42a40b3c59be52209852926436aaae190994f</t>
+  </si>
+  <si>
+    <t>60,673 DOGS</t>
+  </si>
+  <si>
+    <t>890017</t>
+  </si>
+  <si>
+    <t>09141513593</t>
+  </si>
+  <si>
+    <t>سید علیرضا موسوی</t>
+  </si>
+  <si>
+    <t>538440</t>
+  </si>
+  <si>
+    <t>624c735ba544e034043edbd3849ee29e7cfd504ae2cd93c04f81ec85b6ef80af</t>
+  </si>
+  <si>
+    <t>67,915 DOGS</t>
+  </si>
+  <si>
+    <t>436305</t>
+  </si>
+  <si>
+    <t>09196545711</t>
+  </si>
+  <si>
+    <t>سقائی</t>
+  </si>
+  <si>
+    <t>539530</t>
+  </si>
+  <si>
+    <t>81d57e270a7d93df338b41db4bb1535a0ce2aaacaeb7b2d1977e9cd2e8d395be</t>
+  </si>
+  <si>
+    <t>19,675 DOGS</t>
+  </si>
+  <si>
+    <t>101450</t>
+  </si>
+  <si>
+    <t>09361348768</t>
+  </si>
+  <si>
+    <t>بهروز سلحشوری</t>
+  </si>
+  <si>
+    <t>538105</t>
+  </si>
+  <si>
+    <t>d39401e6fc38c006a0247639ef68ee7135cdf7d4e69d0e4eb445029dc7740c9d</t>
+  </si>
+  <si>
+    <t>57,103 DOGS</t>
+  </si>
+  <si>
+    <t>712208</t>
+  </si>
+  <si>
+    <t>d9dedec44c3a43878d75a4e10e5b54f71971323ada03c121fef2a24e8021dd0d</t>
+  </si>
+  <si>
+    <t>52,644 DOGS</t>
+  </si>
+  <si>
+    <t>09119011659</t>
+  </si>
+  <si>
+    <t>دوعاگویان</t>
+  </si>
+  <si>
+    <t>539085</t>
+  </si>
+  <si>
+    <t>7b80ac8d0f416e668c1f4e514509e8e07bccfb05b08e89de9aefe6c773c7fe83</t>
+  </si>
+  <si>
+    <t>10,000 DOGS</t>
+  </si>
+  <si>
+    <t>314182</t>
+  </si>
+  <si>
+    <t>09038320209</t>
+  </si>
+  <si>
+    <t>طه علیزاده</t>
+  </si>
+  <si>
+    <t>533160</t>
+  </si>
+  <si>
+    <t>43df325ab3174b98d091eab2b360249b5663e9e17afc5f3609992d010a778897</t>
+  </si>
+  <si>
+    <t>90,033 DOGS</t>
+  </si>
+  <si>
+    <t>722137</t>
+  </si>
+  <si>
+    <t>09215925074</t>
+  </si>
+  <si>
+    <t>جلالی</t>
+  </si>
+  <si>
+    <t>538062</t>
+  </si>
+  <si>
+    <t>878f3b0572c0f19e91414d3a85c1f4c5da92a3301fb80f707b878eacc5d0e65f</t>
+  </si>
+  <si>
+    <t>12,988 DOGS</t>
+  </si>
+  <si>
+    <t>1131272</t>
+  </si>
+  <si>
+    <t>09385693124</t>
+  </si>
+  <si>
+    <t>احسان لهراسبی آزاد</t>
+  </si>
+  <si>
+    <t>532033</t>
+  </si>
+  <si>
+    <t>a4445500cad6712865ff5a360fbeec71ef3051c3f6aff05cebb6279ba6536072</t>
+  </si>
+  <si>
+    <t>59,129 DOGS</t>
+  </si>
+  <si>
+    <t>569601</t>
+  </si>
+  <si>
+    <t>09166329227</t>
+  </si>
+  <si>
+    <t>شیدا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538997
+</t>
+  </si>
+  <si>
+    <t>27ebe8837e957d55bc1a0da9125c53e728b74394b3099beba9bc211cc7762e0b</t>
+  </si>
+  <si>
+    <t>26,000 DOGS</t>
+  </si>
+  <si>
+    <t>153297</t>
+  </si>
+  <si>
+    <t>09381880071</t>
+  </si>
+  <si>
+    <t>جهان بیک لو</t>
+  </si>
+  <si>
+    <t>535659</t>
+  </si>
+  <si>
+    <t>5e1e3e1189f6aba778f63f71c79b73d6c9b184b5cece1fc08a68b401e93a650f</t>
+  </si>
+  <si>
+    <t>47,443 DOGS</t>
+  </si>
+  <si>
+    <t>484745</t>
+  </si>
+  <si>
+    <t>09397760577</t>
+  </si>
+  <si>
+    <t>فقیهی صدر</t>
+  </si>
+  <si>
+    <t>535737</t>
+  </si>
+  <si>
+    <t>02ea70eec388b3f163f916764aa25e21883f7af55783a1db850383e221272c4b</t>
+  </si>
+  <si>
+    <t>70,248 DOGS</t>
+  </si>
+  <si>
+    <t>185836</t>
+  </si>
+  <si>
+    <t>09366783687</t>
+  </si>
+  <si>
+    <t>يوسف آبادي</t>
+  </si>
+  <si>
+    <t>539655</t>
+  </si>
+  <si>
+    <t>5772d191799c08bb2fa4a24807e83ee5fc6e43513f1d1148a6b9d2afd7483300</t>
+  </si>
+  <si>
+    <t>12,688 DOGS</t>
+  </si>
+  <si>
+    <t>1286995</t>
+  </si>
+  <si>
+    <t>09122857294</t>
+  </si>
+  <si>
+    <t>مهنوش بصيرت نيا</t>
+  </si>
+  <si>
+    <t>531861</t>
+  </si>
+  <si>
+    <t>05ac81d45acf63c1fcfcf320e1db478be5f54f16999ee146933e36f385ade8fd</t>
+  </si>
+  <si>
+    <t>68,527 DOGS</t>
+  </si>
+  <si>
+    <t>1255144</t>
+  </si>
+  <si>
+    <t>09351764570</t>
+  </si>
+  <si>
+    <t>نامی</t>
+  </si>
+  <si>
+    <t>532487</t>
+  </si>
+  <si>
+    <t>e98b4e2fc76ac47e84f47162b23b7747be69b7df3713bb620c064344e75471c7</t>
+  </si>
+  <si>
+    <t>41,902 DOGS</t>
+  </si>
+  <si>
+    <t>635625</t>
+  </si>
+  <si>
+    <t>09116454715</t>
+  </si>
+  <si>
+    <t>موسوی</t>
+  </si>
+  <si>
+    <t>536275</t>
+  </si>
+  <si>
+    <t>861e3732007c1615a0daba03de99e956602f6ec3b815f9e15077687e642f0f46</t>
+  </si>
+  <si>
+    <t>50,000 DOGS</t>
+  </si>
+  <si>
+    <t>1233047</t>
+  </si>
+  <si>
+    <t>09013360527</t>
+  </si>
+  <si>
+    <t>مریم سلطان لو</t>
+  </si>
+  <si>
+    <t>533475</t>
+  </si>
+  <si>
+    <t>045f9f4ec318b4d8dfcc83442f9bc73dce9c11086b73449ad216c1f3f3806137</t>
+  </si>
+  <si>
+    <t>1,532 DOGS</t>
+  </si>
+  <si>
+    <t>1273696</t>
+  </si>
+  <si>
+    <t>09304824365</t>
+  </si>
+  <si>
+    <t>باراني</t>
+  </si>
+  <si>
+    <t>535519</t>
+  </si>
+  <si>
+    <t>47faf46b627ae67a761571546e7b2739169cc547f98c1cb2c12c82633ba54b17</t>
+  </si>
+  <si>
+    <t>1,000 DOGS</t>
+  </si>
+  <si>
+    <t>855324</t>
+  </si>
+  <si>
+    <t>09032767568</t>
+  </si>
+  <si>
+    <t>علي تبار</t>
+  </si>
+  <si>
+    <t>535053</t>
+  </si>
+  <si>
+    <t>95a510ce922a2707508b3527bd8c1fc4ed4a6f9b1bfb2fae87b7813925938616</t>
+  </si>
+  <si>
+    <t>412 DOGS</t>
+  </si>
+  <si>
+    <t>841815</t>
+  </si>
+  <si>
+    <t>09182364603</t>
+  </si>
+  <si>
+    <t>محمد کرانیان</t>
+  </si>
+  <si>
+    <t>532692</t>
+  </si>
+  <si>
+    <t>03791dbc20d7996df7fdfb8a704fb1a0420d0403ca0253827a3ea99b4f45d244</t>
+  </si>
+  <si>
+    <t>26,292 DOGS</t>
+  </si>
+  <si>
+    <t>233199</t>
+  </si>
+  <si>
+    <t>09918238923</t>
+  </si>
+  <si>
+    <t>عباسي</t>
+  </si>
+  <si>
+    <t>536300</t>
+  </si>
+  <si>
+    <t>abb128fc848e711450116be538f29090d5307776a8653d9c66801d209738ca8a</t>
+  </si>
+  <si>
+    <t>55,939 DOGS</t>
+  </si>
+  <si>
+    <t>1021735</t>
+  </si>
+  <si>
+    <t>09182958482</t>
+  </si>
+  <si>
+    <t>كيوان امين پور</t>
+  </si>
+  <si>
+    <t>537647</t>
+  </si>
+  <si>
+    <t>e81e4c35bff7fea9365978ab19bb4952a4794270841f2e61446b5a5e08303557</t>
+  </si>
+  <si>
+    <t>35,323 DOGS</t>
+  </si>
+  <si>
+    <t>967444</t>
+  </si>
+  <si>
+    <t>09199331251</t>
+  </si>
+  <si>
+    <t>ابراهیم بوشاسب</t>
+  </si>
+  <si>
+    <t>534672</t>
+  </si>
+  <si>
+    <t>320c433595b4126e7608b8c7786bba172423f3f48cdd4f81bd4d4dd6e9925724</t>
+  </si>
+  <si>
+    <t>65,604 DOGS</t>
+  </si>
+  <si>
+    <t>29054</t>
+  </si>
+  <si>
+    <t>09112078641</t>
+  </si>
+  <si>
+    <t>قربان پورسلوشي</t>
+  </si>
+  <si>
+    <t>534768</t>
+  </si>
+  <si>
+    <t>c12d2dcf198a86cfba60a4006aaf03c89cb4372058691829e68015836662189b</t>
+  </si>
+  <si>
+    <t>70,303 DOGS</t>
+  </si>
+  <si>
+    <t>1097083</t>
+  </si>
+  <si>
+    <t>09011242060</t>
+  </si>
+  <si>
+    <t>هاديان</t>
+  </si>
+  <si>
+    <t>533084</t>
+  </si>
+  <si>
+    <t>00326c7c9c473425876eb7e661f3d8ec926c4aed53692cc3581e3c8bb4941516</t>
+  </si>
+  <si>
+    <t>70,799 DOGS</t>
+  </si>
+  <si>
+    <t>771106</t>
+  </si>
+  <si>
+    <t>09150757101</t>
+  </si>
+  <si>
+    <t>ماريد</t>
+  </si>
+  <si>
+    <t>538721</t>
+  </si>
+  <si>
+    <t>d42c38f6401c2a2fc81d8a3615486df8c2c96a45fe3a69c7da1e44c47e0690c8</t>
+  </si>
+  <si>
+    <t>15,000 DOGS</t>
+  </si>
+  <si>
+    <t>827177</t>
+  </si>
+  <si>
+    <t>bc3e6ceb4999c60233b24754bc1a788ded0958de7468ee938530351d5e95e361</t>
+  </si>
+  <si>
+    <t>09910659743</t>
+  </si>
+  <si>
+    <t>عباس بلوچ زاده</t>
+  </si>
+  <si>
+    <t>540849</t>
+  </si>
+  <si>
+    <t>c78485d2a7d63a09d508672f2724df3c291d9cd81d48a2ca1791fa30da321993</t>
+  </si>
+  <si>
+    <t>9,225 DOGS</t>
+  </si>
+  <si>
+    <t>800229</t>
+  </si>
+  <si>
+    <t>09178216963</t>
+  </si>
+  <si>
+    <t>رئيسي</t>
+  </si>
+  <si>
+    <t>539162</t>
+  </si>
+  <si>
+    <t>193d82783c3744b04471912c8f660be26ac20959058cae08cfbbdf88d9e350c2</t>
+  </si>
+  <si>
+    <t>53,000 DOGS</t>
+  </si>
+  <si>
+    <t>1180199</t>
+  </si>
+  <si>
+    <t>09162242692</t>
+  </si>
+  <si>
+    <t>خورشیدی</t>
+  </si>
+  <si>
+    <t>534980</t>
+  </si>
+  <si>
+    <t>c380bfbae9ac49c1484a3605aa91747633d672ad5c55577a80eef1e26d799a8d</t>
+  </si>
+  <si>
+    <t>18,188 DOGS</t>
+  </si>
+  <si>
+    <t>44192</t>
+  </si>
+  <si>
+    <t>09017508323</t>
+  </si>
+  <si>
+    <t>عاطفت</t>
+  </si>
+  <si>
+    <t>533646</t>
+  </si>
+  <si>
+    <t>327aced4ac5b690eb5f29ceb359ee76b86dcc4c12ddfc516828f42d974e68420</t>
+  </si>
+  <si>
+    <t>62,907 DOGS</t>
+  </si>
+  <si>
+    <t>227260</t>
+  </si>
+  <si>
+    <t>09211945812</t>
+  </si>
+  <si>
+    <t>بيك زاده</t>
+  </si>
+  <si>
+    <t>532525</t>
+  </si>
+  <si>
+    <t>a52fba1b9f320f639adb9abf258b170d24f3090621479121046bba9e26dfedca</t>
+  </si>
+  <si>
+    <t>31,023 DOGS</t>
+  </si>
+  <si>
+    <t>959067</t>
+  </si>
+  <si>
+    <t>09135944578</t>
+  </si>
+  <si>
+    <t>شكراللهي</t>
+  </si>
+  <si>
+    <t>532103</t>
+  </si>
+  <si>
+    <t>1c408028690a9a8c879928885232c9f92ec5d7c75853c459effdb6972fe27d30</t>
+  </si>
+  <si>
+    <t>29,899 DOGS</t>
+  </si>
+  <si>
+    <t>780021</t>
+  </si>
+  <si>
+    <t>09211670851</t>
+  </si>
+  <si>
+    <t>قاسمي</t>
+  </si>
+  <si>
+    <t>531690</t>
+  </si>
+  <si>
+    <t>eb9ba2080df03a77caa8d52c3c5c3c2b0f39eb24eeec811a5a5b21d81da1e224</t>
+  </si>
+  <si>
+    <t>67,217 DOGS</t>
+  </si>
+  <si>
+    <t>1198206</t>
+  </si>
+  <si>
+    <t>09128869866</t>
+  </si>
+  <si>
+    <t>محمدی</t>
+  </si>
+  <si>
+    <t>535129</t>
+  </si>
+  <si>
+    <t>8d71e52468fcea7d6c105bcb135e75330363cddce6f4de7b6116cf0f0b257a90</t>
+  </si>
+  <si>
+    <t>70,778 DOGS</t>
+  </si>
+  <si>
+    <t>575658</t>
+  </si>
+  <si>
+    <t>09115908924</t>
+  </si>
+  <si>
+    <t>عباس زاده</t>
+  </si>
+  <si>
+    <t>536505</t>
+  </si>
+  <si>
+    <t>fc6eb98e4a2837248e3aa596f0787ef3c4755bc2b1fb480ae7b6d64a8e0b1a90</t>
+  </si>
+  <si>
+    <t>36,157 DOGS</t>
+  </si>
+  <si>
+    <t>1231741</t>
+  </si>
+  <si>
+    <t>09193810587</t>
+  </si>
+  <si>
+    <t>مهناز جواهري</t>
+  </si>
+  <si>
+    <t>534464</t>
+  </si>
+  <si>
+    <t>c5a65c31eb9ee5085f71f1f4ebfab7f5bcde6b96c55ae06628f76e8031365d8c</t>
+  </si>
+  <si>
+    <t>84,200 DOGS</t>
+  </si>
+  <si>
+    <t>1090101</t>
+  </si>
+  <si>
+    <t>09156606760</t>
+  </si>
+  <si>
+    <t>محجوبي نيا</t>
+  </si>
+  <si>
+    <t>539997</t>
+  </si>
+  <si>
+    <t>90885fa64c96867886d33ac52bcdcd26b2e8c377b36c0cf6271254aac6f8be12</t>
+  </si>
+  <si>
+    <t>1057573</t>
+  </si>
+  <si>
+    <t>09055653914</t>
+  </si>
+  <si>
+    <t>عادله چشک</t>
+  </si>
+  <si>
+    <t>539996</t>
+  </si>
+  <si>
+    <t>aa404ea6a2817d6bf846773e2ec3b3c7eb700739398d4296e5cffafba98dfd53</t>
+  </si>
+  <si>
+    <t>304822</t>
+  </si>
+  <si>
+    <t>09133404876</t>
+  </si>
+  <si>
+    <t>گلستانی</t>
+  </si>
+  <si>
+    <t>537783</t>
+  </si>
+  <si>
+    <t>ced4fbee939b6d99895efc00ccd69cd6eb1f7333ce66c1426a1d340d90ed71ac</t>
+  </si>
+  <si>
+    <t>1254062</t>
+  </si>
+  <si>
+    <t>09916180130</t>
+  </si>
+  <si>
+    <t>قربان نژادي بنام</t>
+  </si>
+  <si>
+    <t>532387</t>
+  </si>
+  <si>
+    <t>20a727d2d8edfa0add687e72b0dc77d830a55ee91057b99ab6276b2b24246fc7</t>
+  </si>
+  <si>
+    <t>1089942</t>
+  </si>
+  <si>
+    <t>09195870393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+سيدمهدي شمس
+</t>
+  </si>
+  <si>
+    <t>535107</t>
+  </si>
+  <si>
+    <t>de8bf5ce7e809e2767e9f60a6afc4e6d7e2be4eb3517c66055e61c5b1d763fb9</t>
+  </si>
+  <si>
+    <t>1028207</t>
+  </si>
+  <si>
+    <t>09196085625</t>
+  </si>
+  <si>
+    <t>رها رحمتی</t>
+  </si>
+  <si>
+    <t>540128</t>
+  </si>
+  <si>
+    <t>1bfa0138c8568a2eceda6def0476d545e5f947b43ca14cba42caf95a38b220ee</t>
+  </si>
+  <si>
+    <t>823551</t>
+  </si>
+  <si>
+    <t>09113143303</t>
+  </si>
+  <si>
+    <t>محمودي روشن</t>
+  </si>
+  <si>
+    <t>431694</t>
+  </si>
+  <si>
+    <t>e5b3199d78140696afffbf7197ff419abfd712b8636f15d05a0ffc4cb47966cb</t>
+  </si>
+  <si>
+    <t>844902</t>
+  </si>
+  <si>
+    <t>09135099729</t>
+  </si>
+  <si>
+    <t>منصوری بابامنصوری</t>
+  </si>
+  <si>
+    <t>532993</t>
+  </si>
+  <si>
+    <t>10e2ce36a3ddd53eab2c44ea80238a59f9af6b4cfe79737c994d8246066e292c</t>
+  </si>
+  <si>
+    <t>194287</t>
+  </si>
+  <si>
+    <t>09334330546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميثم سالاريان
+</t>
+  </si>
+  <si>
+    <t>540399</t>
+  </si>
+  <si>
+    <t>a588a947054731085eff8f7791572818b686581472123bbb8a116c8ceb2a6a41</t>
+  </si>
+  <si>
+    <t>1090901</t>
+  </si>
+  <si>
+    <t>09190610878</t>
+  </si>
+  <si>
+    <t>نجفی</t>
+  </si>
+  <si>
+    <t>539400</t>
+  </si>
+  <si>
+    <t>be6b516bf3204b7ab1928a7ed9330548cd80d10f3d70e242da161cffd87496d1</t>
+  </si>
+  <si>
+    <t>867542</t>
+  </si>
+  <si>
+    <t>09137270159</t>
+  </si>
+  <si>
+    <t>نشتانوروزي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535580
+</t>
+  </si>
+  <si>
+    <t>6324fdbe02ade1c51886ece52d243b488ae06f74b9ede6f08f3bd32d02379534</t>
+  </si>
+  <si>
+    <t>881891</t>
   </si>
   <si>
     <t>UQD5X3jciHiG4dA8fI3Y6oiXMkibk3RCJ0U2gFmeTsee2pXH</t>
   </si>
   <si>
+    <t>23817 Dogs</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>36238 Dogs</t>
+  </si>
+  <si>
+    <t>19002 Dogs</t>
+  </si>
+  <si>
+    <t>20093 Dogs</t>
+  </si>
+  <si>
+    <t>40468 Dogs</t>
+  </si>
+  <si>
+    <t>36938 Dogs</t>
+  </si>
+  <si>
+    <t>63507 Dogs</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>-</t>
+    <t>9880 Dogs</t>
+  </si>
+  <si>
+    <t>61900 Dogs</t>
+  </si>
+  <si>
+    <t>37152 Dogs</t>
+  </si>
+  <si>
+    <t>62169 Dogs</t>
+  </si>
+  <si>
+    <t>6201 Dogs</t>
+  </si>
+  <si>
+    <t>62501 Dogs</t>
+  </si>
+  <si>
+    <t>88226 Dogs</t>
+  </si>
+  <si>
+    <t>64000 Dogs</t>
+  </si>
+  <si>
+    <t>39119 Dogs</t>
+  </si>
+  <si>
+    <t>17208 Dogs</t>
+  </si>
+  <si>
+    <t>116935</t>
+  </si>
+  <si>
+    <t>27938 Dogs</t>
+  </si>
+  <si>
+    <t>17788 Dogs</t>
+  </si>
+  <si>
+    <t>62568 Dogs</t>
+  </si>
+  <si>
+    <t>44646 Dogs</t>
+  </si>
+  <si>
+    <t>36678 Dogs</t>
+  </si>
+  <si>
+    <t>34009 Dogs</t>
+  </si>
+  <si>
+    <t>62870 Dogs</t>
+  </si>
+  <si>
+    <t>32952 Dogs</t>
+  </si>
+  <si>
+    <t>24415 Dogs</t>
+  </si>
+  <si>
+    <t>35396 Dogs</t>
+  </si>
+  <si>
+    <t>62966 Dogs</t>
+  </si>
+  <si>
+    <t>42880 Dogs</t>
+  </si>
+  <si>
+    <t>14810 Dogs</t>
+  </si>
+  <si>
+    <t>52422 Dogs</t>
+  </si>
+  <si>
+    <t>943 Dogs</t>
+  </si>
+  <si>
+    <t>48345 Dogs</t>
+  </si>
+  <si>
+    <t>41392 Dogs</t>
+  </si>
+  <si>
+    <t>31570.78468236 Dogs</t>
+  </si>
+  <si>
+    <t>31873 Dogs</t>
+  </si>
+  <si>
+    <t>1038 Dogs</t>
+  </si>
+  <si>
+    <t>33438 Dogs</t>
+  </si>
+  <si>
+    <t>32327 Dogs</t>
+  </si>
+  <si>
+    <t>35573 Dogs</t>
+  </si>
+  <si>
+    <t>20000 Dogs</t>
+  </si>
+  <si>
+    <t>13715 Dogs</t>
+  </si>
+  <si>
+    <t>875533</t>
+  </si>
+  <si>
+    <t>83977 Dogs</t>
+  </si>
+  <si>
+    <t>25701 Dogs</t>
+  </si>
+  <si>
+    <t>65951 Dogs</t>
+  </si>
+  <si>
+    <t>60673 Dogs</t>
+  </si>
+  <si>
+    <t>67915 Dogs</t>
+  </si>
+  <si>
+    <t>19675 Dogs</t>
+  </si>
+  <si>
+    <t>57103 Dogs</t>
+  </si>
+  <si>
+    <t>52644 Dogs</t>
+  </si>
+  <si>
+    <t>10000 Dogs</t>
+  </si>
+  <si>
+    <t>90033 Dogs</t>
+  </si>
+  <si>
+    <t>12988 Dogs</t>
+  </si>
+  <si>
+    <t>59129 Dogs</t>
+  </si>
+  <si>
+    <t>داگز</t>
+  </si>
+  <si>
+    <t>26000 Dogs</t>
+  </si>
+  <si>
+    <t>47443 Dogs</t>
+  </si>
+  <si>
+    <t>70248 Dogs</t>
+  </si>
+  <si>
+    <t>12688 Dogs</t>
+  </si>
+  <si>
+    <t>Mee1Dogs</t>
+  </si>
+  <si>
+    <t>68527 Dogs</t>
+  </si>
+  <si>
+    <t>41902 Dogs</t>
+  </si>
+  <si>
+    <t>50000 Dogs</t>
+  </si>
+  <si>
+    <t>1532 Dogs</t>
+  </si>
+  <si>
+    <t>1000 Dogs</t>
+  </si>
+  <si>
+    <t>412 Dogs</t>
+  </si>
+  <si>
+    <t>26292 Dogs</t>
+  </si>
+  <si>
+    <t>55939 Dogs</t>
+  </si>
+  <si>
+    <t>35323 Dogs</t>
+  </si>
+  <si>
+    <t>65604 Dogs</t>
+  </si>
+  <si>
+    <t>70303 Dogs</t>
+  </si>
+  <si>
+    <t>70799 Dogs</t>
+  </si>
+  <si>
+    <t>15000 Dogs</t>
+  </si>
+  <si>
+    <t>9225 Dogs</t>
+  </si>
+  <si>
+    <t>53000 Dogs</t>
+  </si>
+  <si>
+    <t>44292</t>
+  </si>
+  <si>
+    <t>18188 Dogs</t>
+  </si>
+  <si>
+    <t>62907 Dogs</t>
+  </si>
+  <si>
+    <t>31023 Dogs</t>
+  </si>
+  <si>
+    <t>29899 Dogs</t>
+  </si>
+  <si>
+    <t>67217 Dogs</t>
+  </si>
+  <si>
+    <t>70778 Dogs</t>
+  </si>
+  <si>
+    <t>36157 Dogs</t>
+  </si>
+  <si>
+    <t>84200 Dogs</t>
+  </si>
+  <si>
+    <t>105773</t>
+  </si>
+  <si>
+    <t>29405 Dogs</t>
+  </si>
+  <si>
+    <t>11838 Dogs</t>
+  </si>
+  <si>
+    <t>22211 Dogs</t>
+  </si>
+  <si>
+    <t>2888 Dogs</t>
+  </si>
+  <si>
+    <t>49198 Dogs</t>
+  </si>
+  <si>
+    <t>59751 Dogs</t>
+  </si>
+  <si>
+    <t>64055 Dogs</t>
+  </si>
+  <si>
+    <t>10038 Dogs</t>
+  </si>
+  <si>
+    <t>109901</t>
+  </si>
+  <si>
+    <t>28136 Dogs</t>
+  </si>
+  <si>
+    <t>24638 Dogs</t>
+  </si>
+  <si>
+    <t>21423 Dogs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -110,13 +1956,35 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFE1F6"/>
+        <bgColor rgb="FFBFE1F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,13 +1999,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyAlignment="true"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,16 +2257,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>539</v>
       </c>
       <c r="K1" t="b">
         <v>1</v>
       </c>
       <c r="L1" t="b">
         <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="2">
@@ -414,16 +2295,19 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>541</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="3">
@@ -446,19 +2330,22 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>542</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="4">
@@ -484,16 +2371,3379 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
+        <v>538</v>
+      </c>
+      <c r="J4" t="s">
+        <v>543</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J5" t="s">
+        <v>544</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>538</v>
+      </c>
+      <c r="J6" t="s">
+        <v>545</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>547</v>
+      </c>
+      <c r="I8" t="s">
+        <v>538</v>
+      </c>
+      <c r="J8" t="s">
+        <v>548</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>547</v>
+      </c>
+      <c r="I9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J9" t="s">
+        <v>549</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>538</v>
+      </c>
+      <c r="J10" t="s">
+        <v>550</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>538</v>
+      </c>
+      <c r="J11" t="s">
+        <v>551</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J12" t="s">
+        <v>552</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>538</v>
+      </c>
+      <c r="J13" t="s">
+        <v>553</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>547</v>
+      </c>
+      <c r="I14" t="s">
+        <v>538</v>
+      </c>
+      <c r="J14" t="s">
+        <v>554</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>547</v>
+      </c>
+      <c r="I15" t="s">
+        <v>538</v>
+      </c>
+      <c r="J15" t="s">
+        <v>555</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>547</v>
+      </c>
+      <c r="I16" t="s">
+        <v>538</v>
+      </c>
+      <c r="J16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>538</v>
+      </c>
+      <c r="J17" t="s">
+        <v>557</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>558</v>
+      </c>
+      <c r="I18" t="s">
+        <v>538</v>
+      </c>
+      <c r="J18" t="s">
+        <v>559</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>538</v>
+      </c>
+      <c r="J19" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>538</v>
+      </c>
+      <c r="J20" t="s">
+        <v>561</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" t="s">
+        <v>538</v>
+      </c>
+      <c r="J21" t="s">
+        <v>562</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" t="s">
+        <v>538</v>
+      </c>
+      <c r="J22" t="s">
+        <v>563</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
+        <v>538</v>
+      </c>
+      <c r="J23" t="s">
+        <v>564</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" t="s">
+        <v>538</v>
+      </c>
+      <c r="J24" t="s">
+        <v>565</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" t="s">
+        <v>538</v>
+      </c>
+      <c r="J25" t="s">
+        <v>566</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" t="s">
+        <v>538</v>
+      </c>
+      <c r="J26" t="s">
+        <v>567</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" t="s">
+        <v>547</v>
+      </c>
+      <c r="I27" t="s">
+        <v>538</v>
+      </c>
+      <c r="J27" t="s">
+        <v>568</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" t="s">
+        <v>538</v>
+      </c>
+      <c r="J28" t="s">
+        <v>569</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>538</v>
+      </c>
+      <c r="J29" t="s">
+        <v>570</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" t="s">
+        <v>538</v>
+      </c>
+      <c r="J30" t="s">
+        <v>571</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" t="s">
+        <v>538</v>
+      </c>
+      <c r="J31" t="s">
+        <v>572</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" t="s">
+        <v>538</v>
+      </c>
+      <c r="J32" t="s">
+        <v>573</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" t="s">
+        <v>538</v>
+      </c>
+      <c r="I33" t="s">
+        <v>538</v>
+      </c>
+      <c r="J33" t="s">
+        <v>574</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" t="s">
+        <v>538</v>
+      </c>
+      <c r="J34" t="s">
+        <v>575</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" t="s">
+        <v>547</v>
+      </c>
+      <c r="I35" t="s">
+        <v>538</v>
+      </c>
+      <c r="J35" t="s">
+        <v>576</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" t="s">
+        <v>547</v>
+      </c>
+      <c r="I36" t="s">
+        <v>538</v>
+      </c>
+      <c r="J36" t="s">
+        <v>577</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" t="s">
+        <v>547</v>
+      </c>
+      <c r="I37" t="s">
+        <v>538</v>
+      </c>
+      <c r="J37" t="s">
+        <v>578</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" t="s">
+        <v>547</v>
+      </c>
+      <c r="I38" t="s">
+        <v>538</v>
+      </c>
+      <c r="J38" t="s">
+        <v>579</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" t="s">
+        <v>547</v>
+      </c>
+      <c r="I39" t="s">
+        <v>538</v>
+      </c>
+      <c r="J39" t="s">
+        <v>580</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" t="s">
+        <v>547</v>
+      </c>
+      <c r="I40" t="s">
+        <v>538</v>
+      </c>
+      <c r="J40" t="s">
+        <v>581</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H41" t="s">
+        <v>245</v>
+      </c>
+      <c r="I41" t="s">
+        <v>538</v>
+      </c>
+      <c r="J41" t="s">
+        <v>582</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" t="s">
+        <v>251</v>
+      </c>
+      <c r="I42" t="s">
+        <v>538</v>
+      </c>
+      <c r="J42" t="s">
+        <v>583</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" t="s">
+        <v>584</v>
+      </c>
+      <c r="I43" t="s">
+        <v>538</v>
+      </c>
+      <c r="J43" t="s">
+        <v>585</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" t="s">
+        <v>547</v>
+      </c>
+      <c r="I44" t="s">
+        <v>538</v>
+      </c>
+      <c r="J44" t="s">
+        <v>586</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H45" t="s">
+        <v>547</v>
+      </c>
+      <c r="I45" t="s">
+        <v>538</v>
+      </c>
+      <c r="J45" t="s">
+        <v>587</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H46" t="s">
+        <v>547</v>
+      </c>
+      <c r="I46" t="s">
+        <v>538</v>
+      </c>
+      <c r="J46" t="s">
+        <v>588</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I47" t="s">
+        <v>538</v>
+      </c>
+      <c r="J47" t="s">
+        <v>589</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" t="s">
+        <v>287</v>
+      </c>
+      <c r="I48" t="s">
+        <v>538</v>
+      </c>
+      <c r="J48" t="s">
+        <v>590</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H49" t="s">
+        <v>293</v>
+      </c>
+      <c r="I49" t="s">
+        <v>538</v>
+      </c>
+      <c r="J49" t="s">
+        <v>591</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H50" t="s">
+        <v>293</v>
+      </c>
+      <c r="I50" t="s">
+        <v>538</v>
+      </c>
+      <c r="J50" t="s">
+        <v>592</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H51" t="s">
+        <v>301</v>
+      </c>
+      <c r="I51" t="s">
+        <v>538</v>
+      </c>
+      <c r="J51" t="s">
+        <v>593</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H52" t="s">
+        <v>307</v>
+      </c>
+      <c r="I52" t="s">
+        <v>538</v>
+      </c>
+      <c r="J52" t="s">
+        <v>594</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H53" t="s">
+        <v>547</v>
+      </c>
+      <c r="I53" t="s">
+        <v>538</v>
+      </c>
+      <c r="J53" t="s">
+        <v>595</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H54" t="s">
+        <v>319</v>
+      </c>
+      <c r="I54" t="s">
+        <v>538</v>
+      </c>
+      <c r="J54" t="s">
+        <v>596</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H55" t="s">
+        <v>597</v>
+      </c>
+      <c r="I55" t="s">
+        <v>538</v>
+      </c>
+      <c r="J55" t="s">
+        <v>598</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H56" t="s">
+        <v>331</v>
+      </c>
+      <c r="I56" t="s">
+        <v>538</v>
+      </c>
+      <c r="J56" t="s">
+        <v>599</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H57" t="s">
+        <v>547</v>
+      </c>
+      <c r="I57" t="s">
+        <v>538</v>
+      </c>
+      <c r="J57" t="s">
+        <v>600</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H58" t="s">
+        <v>547</v>
+      </c>
+      <c r="I58" t="s">
+        <v>538</v>
+      </c>
+      <c r="J58" t="s">
+        <v>601</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H59" t="s">
+        <v>602</v>
+      </c>
+      <c r="I59" t="s">
+        <v>538</v>
+      </c>
+      <c r="J59" t="s">
+        <v>603</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H60" t="s">
+        <v>355</v>
+      </c>
+      <c r="I60" t="s">
+        <v>538</v>
+      </c>
+      <c r="J60" t="s">
+        <v>604</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H61" t="s">
+        <v>361</v>
+      </c>
+      <c r="I61" t="s">
+        <v>538</v>
+      </c>
+      <c r="J61" t="s">
+        <v>605</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H62" t="s">
+        <v>367</v>
+      </c>
+      <c r="I62" t="s">
+        <v>538</v>
+      </c>
+      <c r="J62" t="s">
+        <v>606</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H63" t="s">
+        <v>373</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>607</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H64" t="s">
+        <v>379</v>
+      </c>
+      <c r="I64" t="s">
+        <v>538</v>
+      </c>
+      <c r="J64" t="s">
+        <v>608</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H65" t="s">
+        <v>385</v>
+      </c>
+      <c r="I65" t="s">
+        <v>538</v>
+      </c>
+      <c r="J65" t="s">
+        <v>609</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H66" t="s">
+        <v>391</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>610</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H67" t="s">
+        <v>397</v>
+      </c>
+      <c r="I67" t="s">
+        <v>538</v>
+      </c>
+      <c r="J67" t="s">
+        <v>611</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H68" t="s">
+        <v>403</v>
+      </c>
+      <c r="I68" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" t="s">
+        <v>612</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H69" t="s">
+        <v>409</v>
+      </c>
+      <c r="I69" t="s">
+        <v>538</v>
+      </c>
+      <c r="J69" t="s">
+        <v>613</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H70" t="s">
+        <v>415</v>
+      </c>
+      <c r="I70" t="s">
+        <v>538</v>
+      </c>
+      <c r="J70" t="s">
+        <v>614</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H71" t="s">
+        <v>421</v>
+      </c>
+      <c r="I71" t="s">
+        <v>538</v>
+      </c>
+      <c r="J71" t="s">
+        <v>615</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H72" t="s">
+        <v>421</v>
+      </c>
+      <c r="I72" t="s">
+        <v>538</v>
+      </c>
+      <c r="J72" t="s">
+        <v>615</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H73" t="s">
+        <v>547</v>
+      </c>
+      <c r="I73" t="s">
+        <v>538</v>
+      </c>
+      <c r="J73" t="s">
+        <v>616</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H74" t="s">
+        <v>547</v>
+      </c>
+      <c r="I74" t="s">
+        <v>538</v>
+      </c>
+      <c r="J74" t="s">
+        <v>617</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H75" t="s">
+        <v>618</v>
+      </c>
+      <c r="I75" t="s">
+        <v>538</v>
+      </c>
+      <c r="J75" t="s">
+        <v>619</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H76" t="s">
+        <v>446</v>
+      </c>
+      <c r="I76" t="s">
+        <v>538</v>
+      </c>
+      <c r="J76" t="s">
+        <v>620</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H77" t="s">
+        <v>452</v>
+      </c>
+      <c r="I77" t="s">
+        <v>538</v>
+      </c>
+      <c r="J77" t="s">
+        <v>621</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H78" t="s">
+        <v>458</v>
+      </c>
+      <c r="I78" t="s">
+        <v>538</v>
+      </c>
+      <c r="J78" t="s">
+        <v>622</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H79" t="s">
+        <v>464</v>
+      </c>
+      <c r="I79" t="s">
+        <v>538</v>
+      </c>
+      <c r="J79" t="s">
+        <v>623</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H80" t="s">
+        <v>470</v>
+      </c>
+      <c r="I80" t="s">
+        <v>538</v>
+      </c>
+      <c r="J80" t="s">
+        <v>624</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H81" t="s">
+        <v>476</v>
+      </c>
+      <c r="I81" t="s">
+        <v>538</v>
+      </c>
+      <c r="J81" t="s">
+        <v>625</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H82" t="s">
+        <v>482</v>
+      </c>
+      <c r="I82" t="s">
+        <v>538</v>
+      </c>
+      <c r="J82" t="s">
+        <v>626</v>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H83" t="s">
+        <v>627</v>
+      </c>
+      <c r="I83" t="s">
+        <v>538</v>
+      </c>
+      <c r="J83" t="s">
+        <v>628</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H84" t="s">
+        <v>547</v>
+      </c>
+      <c r="I84" t="s">
+        <v>538</v>
+      </c>
+      <c r="J84" t="s">
+        <v>629</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H85" t="s">
+        <v>547</v>
+      </c>
+      <c r="I85" t="s">
+        <v>538</v>
+      </c>
+      <c r="J85" t="s">
+        <v>630</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H86" t="s">
+        <v>502</v>
+      </c>
+      <c r="I86" t="s">
+        <v>538</v>
+      </c>
+      <c r="J86" t="s">
+        <v>631</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="H87" t="s">
+        <v>507</v>
+      </c>
+      <c r="I87" t="s">
+        <v>538</v>
+      </c>
+      <c r="J87" t="s">
+        <v>632</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H88" t="s">
+        <v>512</v>
+      </c>
+      <c r="I88" t="s">
+        <v>538</v>
+      </c>
+      <c r="J88" t="s">
+        <v>633</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H89" t="s">
+        <v>517</v>
+      </c>
+      <c r="I89" t="s">
+        <v>538</v>
+      </c>
+      <c r="J89" t="s">
+        <v>634</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H90" t="s">
+        <v>522</v>
+      </c>
+      <c r="I90" t="s">
+        <v>538</v>
+      </c>
+      <c r="J90" t="s">
+        <v>635</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="H91" t="s">
+        <v>636</v>
+      </c>
+      <c r="I91" t="s">
+        <v>538</v>
+      </c>
+      <c r="J91" t="s">
+        <v>637</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H92" t="s">
+        <v>547</v>
+      </c>
+      <c r="I92" t="s">
+        <v>538</v>
+      </c>
+      <c r="J92" t="s">
+        <v>638</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H93" t="s">
+        <v>537</v>
+      </c>
+      <c r="I93" t="s">
+        <v>538</v>
+      </c>
+      <c r="J93" t="s">
+        <v>639</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
